--- a/StructureDefinition-profile-ImplementationGuide.xlsx
+++ b/StructureDefinition-profile-ImplementationGuide.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7157268-06:00</t>
+    <t>2026-02-09T22:05:43.1608207-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,106 @@
     <t>ImplementationGuide.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.versionAlgorithm[x]` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this implementation guide is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.purpose` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.copyrightLabel` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -808,20 +876,13 @@
     <t>ImplementationGuide.fhirVersion.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.fhirVersion.extension:fhirVersion</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.fhirVersion|0.0.1-snapshot-3}
@@ -834,11 +895,7 @@
     <t>The version(s) of the FHIR specification that this ImplementationGuide targets - e.g. describes how to use. The value of this element is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t>Most implementation guides target a single version - e.g. they describe how to use a particular version, and the profiles and examples etc. are valid for that version. But some implementation guides describe how to use multiple different versions of FHIR to solve the same problem, or in concert with each other. Typically, the requirement to support multiple versions arises as implementation matures and different implementation communities are stuck at different versions by regulation or market dynamics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `ImplementationGuide.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.fhirVersion`.</t>
   </si>
   <si>
     <t>ImplementationGuide.fhirVersion.value</t>
@@ -875,7 +932,23 @@
     <t>ImplementationGuide.dependsOn.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ImplementationGuide.dependsOn.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn.reason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.dependsOn.reason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A description explaining the nature of the dependency on the listed IG.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.dependsOn.reason` is will have a context of ImplementationGuide.dependsOn based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>ImplementationGuide.dependsOn.modifierExtension</t>
@@ -950,6 +1023,12 @@
     <t>ImplementationGuide.global.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.global.modifierExtension</t>
   </si>
   <si>
@@ -975,6 +1054,12 @@
   </si>
   <si>
     <t>ImplementationGuide.global.type.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global.type|0.0.1-snapshot-3}
@@ -984,6 +1069,9 @@
     <t>Cross-version extension for ImplementationGuide.global.type from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ImplementationGuide.global.type` is mapped to FHIR R4 element `ImplementationGuide.global.type`.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.global.type.value</t>
   </si>
   <si>
@@ -1116,6 +1204,9 @@
     <t>ImplementationGuide.definition.resource.fhirVersion.extension</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.resource.fhirVersion.extension:fhirVersion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.resource.fhirVersion|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1123,7 +1214,7 @@
     <t>Cross-version extension for ImplementationGuide.definition.resource.fhirVersion from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The resource SHALL be valid against all the versions it is specified to apply to. If the resource referred to is a StructureDefinition, the fhirVersion stated in the StructureDefinition cannot disagree with the version specified here; the specified versions SHALL include the version specified by the StructureDefinition, and may include additional versions using the [http://hl7.org/fhir/StructureDefinition/structuredefinition-applicable-version](http://hl7.org/fhir/extensions/StructureDefinition-structuredefinition-applicable-version.html) extension.</t>
+    <t>Element `ImplementationGuide.definition.resource.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.definition.resource.fhirVersion`.</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.resource.fhirVersion.value</t>
@@ -1200,6 +1291,26 @@
     <t>ImplementationGuide.definition.page.extension</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.page.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page.source|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.definition.page.source[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the URL or the actual content to provide for the page.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition.page.source[x]` is part of an existing definition because parent element `ImplementationGuide.definition.page` requires a component extension (e.g., if this element is used as a content reference).
+Element `ImplementationGuide.definition.page.source[x]` is will have a context of ImplementationGuide.definition.page based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.definition.page.modifierExtension</t>
   </si>
   <si>
@@ -1291,6 +1402,12 @@
     <t>ImplementationGuide.definition.parameter.code.extension</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.parameter.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter.code|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1299,6 +1416,9 @@
   </si>
   <si>
     <t>A tool-specific code that defines the parameter.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition.parameter.code` is mapped to FHIR R4 element `ImplementationGuide.definition.parameter.code`.</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.parameter.code.value</t>
@@ -1807,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN117"/>
+  <dimension ref="A1:AN122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1816,9 +1936,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2782,7 +2902,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2801,17 +2921,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2848,16 +2966,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2875,7 +2991,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2892,43 +3008,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2976,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2985,13 +3101,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3005,18 +3121,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>86</v>
@@ -3028,23 +3146,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3092,28 +3208,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3124,9 +3240,11 @@
         <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3144,19 +3262,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3206,28 +3324,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3235,33 +3353,33 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -3322,22 +3440,22 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3358,11 +3476,11 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
@@ -3377,18 +3495,20 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3439,7 +3559,7 @@
         <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>86</v>
@@ -3454,10 +3574,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3465,10 +3585,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3476,7 +3596,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3485,22 +3605,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3526,13 +3646,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3550,10 +3670,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3568,10 +3688,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3579,10 +3699,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3590,7 +3710,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3605,7 +3725,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
@@ -3614,10 +3734,10 @@
         <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3666,16 +3786,16 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3684,10 +3804,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3702,7 +3822,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3721,16 +3841,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3798,10 +3918,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3809,10 +3929,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3820,7 +3940,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3829,26 +3949,24 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3872,13 +3990,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3896,10 +4014,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3914,10 +4032,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3925,10 +4043,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3939,7 +4057,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3951,18 +4069,20 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4010,13 +4130,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4028,10 +4148,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4046,7 +4166,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4062,19 +4182,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4142,10 +4262,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4153,10 +4273,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4167,7 +4287,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4179,19 +4299,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4240,13 +4360,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4258,10 +4378,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4269,10 +4389,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4295,16 +4415,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4330,13 +4450,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4354,7 +4474,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4372,7 +4492,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4383,14 +4503,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4409,18 +4529,18 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4468,7 +4588,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4486,21 +4606,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4508,10 +4628,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4523,18 +4643,20 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4582,13 +4704,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4600,7 +4722,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4611,10 +4733,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4625,7 +4747,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4637,15 +4759,17 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4670,13 +4794,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4694,13 +4818,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4712,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4723,21 +4847,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4746,21 +4870,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4784,37 +4908,37 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4826,21 +4950,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4848,7 +4972,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4860,18 +4984,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4920,10 +5046,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -4932,7 +5058,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4949,10 +5075,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4960,10 +5086,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4972,16 +5098,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5008,41 +5134,43 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5059,10 +5187,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5082,19 +5210,19 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5120,13 +5248,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5144,19 +5272,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5173,10 +5301,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5199,13 +5327,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5256,7 +5384,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5285,10 +5413,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5296,7 +5424,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5308,16 +5436,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5356,19 +5484,17 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5380,7 +5506,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5397,21 +5523,23 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5423,15 +5551,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5480,22 +5610,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5509,21 +5639,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5535,17 +5665,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5594,22 +5722,22 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5623,14 +5751,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5643,26 +5771,22 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5710,7 +5834,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5722,10 +5846,10 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5739,10 +5863,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5750,7 +5874,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5762,20 +5886,18 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5824,10 +5946,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -5836,10 +5958,10 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5853,10 +5975,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5867,7 +5989,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5876,16 +5998,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5924,31 +6046,29 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5965,12 +6085,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5988,19 +6110,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6050,19 +6172,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6079,14 +6201,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6099,24 +6221,26 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6164,7 +6288,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6176,10 +6300,10 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6193,10 +6317,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6204,7 +6328,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -6216,18 +6340,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6276,10 +6402,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>86</v>
@@ -6288,10 +6414,10 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6305,21 +6431,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6328,20 +6454,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6390,22 +6514,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6419,46 +6543,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6506,22 +6628,22 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6535,10 +6657,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6546,10 +6668,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6561,16 +6683,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6596,13 +6718,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6620,13 +6742,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6649,10 +6771,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6675,13 +6797,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6732,7 +6854,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6747,7 +6869,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6761,18 +6883,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6787,15 +6909,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6832,17 +6956,19 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6857,7 +6983,7 @@
         <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6871,44 +6997,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>303</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6956,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6965,13 +7093,13 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6985,10 +7113,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6996,7 +7124,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -7008,18 +7136,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7044,13 +7174,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7068,10 +7198,10 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>86</v>
@@ -7080,7 +7210,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7097,10 +7227,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7108,7 +7238,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -7120,16 +7250,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7180,10 +7310,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -7192,7 +7322,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7209,10 +7339,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7220,10 +7350,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7235,17 +7365,15 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7282,31 +7410,29 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7323,18 +7449,20 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7349,15 +7477,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7406,22 +7536,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7435,21 +7565,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7461,17 +7591,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7520,22 +7648,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7549,46 +7677,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7636,22 +7760,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7665,10 +7789,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7679,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7691,16 +7815,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7750,19 +7874,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7779,10 +7903,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7805,13 +7929,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7862,7 +7986,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7891,14 +8015,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7917,16 +8041,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7976,7 +8100,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8005,14 +8129,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8031,19 +8155,19 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8092,7 +8216,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8121,10 +8245,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8132,10 +8256,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8147,15 +8271,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8204,13 +8330,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8233,10 +8359,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8259,13 +8385,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8316,7 +8442,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8328,10 +8454,10 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8345,18 +8471,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8371,15 +8497,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8428,10 +8556,10 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8440,10 +8568,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8457,42 +8585,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8540,22 +8672,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8569,21 +8701,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8595,17 +8727,15 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>133</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8654,22 +8784,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8683,46 +8813,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8770,22 +8896,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8799,10 +8925,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8813,7 +8939,7 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8825,17 +8951,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8884,13 +9008,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8913,10 +9037,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8927,7 +9051,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8939,17 +9063,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8974,13 +9096,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8998,22 +9120,22 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9027,21 +9149,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9053,15 +9175,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9110,22 +9234,22 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9139,18 +9263,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9159,22 +9283,26 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9210,17 +9338,19 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9235,7 +9365,7 @@
         <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9249,10 +9379,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9260,10 +9390,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9275,16 +9405,16 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9334,19 +9464,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9363,10 +9493,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9377,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9389,15 +9519,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>266</v>
+        <v>377</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9422,13 +9554,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9446,19 +9578,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9475,10 +9607,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9501,13 +9633,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9558,7 +9690,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9570,7 +9702,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9587,10 +9719,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9601,7 +9733,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9613,17 +9745,15 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9660,31 +9790,29 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9701,12 +9829,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9715,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9727,16 +9857,16 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9786,19 +9916,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9815,10 +9945,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9841,17 +9971,15 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9900,7 +10028,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9912,7 +10040,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9929,10 +10057,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9955,17 +10083,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10014,7 +10140,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10043,10 +10169,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10069,15 +10195,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10126,7 +10254,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>253</v>
+        <v>390</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10138,10 +10266,10 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10155,21 +10283,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10181,16 +10309,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10240,22 +10368,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10269,46 +10397,44 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10356,22 +10482,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10385,10 +10511,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10396,7 +10522,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -10411,16 +10537,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10470,10 +10596,10 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>86</v>
@@ -10499,10 +10625,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10510,7 +10636,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>86</v>
@@ -10525,13 +10651,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>291</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10582,10 +10708,10 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>274</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>86</v>
@@ -10594,10 +10720,10 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10611,10 +10737,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10622,10 +10748,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10637,13 +10763,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>390</v>
+        <v>132</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10670,43 +10796,41 @@
         <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>389</v>
+        <v>276</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10723,12 +10847,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10737,7 +10863,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10749,16 +10875,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10808,7 +10934,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>393</v>
+        <v>276</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10817,10 +10943,10 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10837,14 +10963,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10857,22 +10983,26 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10920,7 +11050,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10932,10 +11062,10 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10949,10 +11079,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10960,7 +11090,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>86</v>
@@ -10975,15 +11105,17 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11032,10 +11164,10 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>253</v>
+        <v>416</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>86</v>
@@ -11044,10 +11176,10 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11061,21 +11193,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11087,17 +11219,15 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>133</v>
+        <v>422</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11146,22 +11276,22 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11175,46 +11305,42 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>279</v>
+        <v>425</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11238,13 +11364,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11262,22 +11388,22 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>281</v>
+        <v>424</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11291,10 +11417,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11302,10 +11428,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11317,15 +11443,17 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11350,13 +11478,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11374,13 +11502,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11403,10 +11531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11417,7 +11545,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11429,13 +11557,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>252</v>
+        <v>434</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11486,19 +11614,19 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11515,10 +11643,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11526,10 +11654,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11541,13 +11669,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11586,32 +11714,34 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11625,21 +11755,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11651,15 +11781,17 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>410</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11708,7 +11840,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11717,13 +11849,13 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11737,42 +11869,46 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11820,22 +11956,22 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11849,10 +11985,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11875,13 +12011,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11908,13 +12044,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -11932,7 +12068,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -11961,10 +12097,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11975,7 +12111,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -11987,13 +12123,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12044,19 +12180,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12073,10 +12209,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12084,10 +12220,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12099,13 +12235,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12144,34 +12280,32 @@
         <v>77</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12185,21 +12319,23 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D92" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12211,16 +12347,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>447</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12270,7 +12406,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12279,13 +12415,13 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12299,46 +12435,42 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12386,22 +12518,22 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12415,10 +12547,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12441,13 +12573,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12498,7 +12630,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -12527,10 +12659,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12538,10 +12670,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12553,13 +12685,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12610,13 +12742,13 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
@@ -12639,10 +12771,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12665,13 +12797,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>430</v>
+        <v>291</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12722,7 +12854,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>429</v>
+        <v>274</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12734,10 +12866,10 @@
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12751,21 +12883,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -12777,15 +12909,17 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>433</v>
+        <v>323</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -12834,22 +12968,22 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12863,42 +12997,46 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12946,22 +13084,22 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -12975,21 +13113,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -13001,17 +13139,15 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13060,22 +13196,22 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>259</v>
+        <v>461</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13089,46 +13225,42 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13176,22 +13308,22 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13205,10 +13337,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13228,16 +13360,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13288,7 +13420,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13317,10 +13449,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13328,10 +13460,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13340,16 +13472,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>338</v>
+        <v>471</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>339</v>
+        <v>472</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13400,13 +13532,13 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
@@ -13429,10 +13561,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13455,13 +13587,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13512,7 +13644,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13541,14 +13673,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13567,16 +13699,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13626,7 +13758,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13655,14 +13787,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13681,19 +13813,19 @@
         <v>87</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13742,7 +13874,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -13771,10 +13903,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13782,7 +13914,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>86</v>
@@ -13797,17 +13929,15 @@
         <v>87</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>345</v>
+        <v>478</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13856,10 +13986,10 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>86</v>
@@ -13885,10 +14015,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13896,10 +14026,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>77</v>
@@ -13908,20 +14038,18 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -13970,13 +14098,13 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>77</v>
@@ -13999,10 +14127,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14025,17 +14153,15 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>450</v>
+        <v>291</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -14084,7 +14210,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>449</v>
+        <v>274</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14096,10 +14222,10 @@
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14113,14 +14239,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14139,18 +14265,18 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>454</v>
+        <v>323</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14198,7 +14324,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14210,10 +14336,10 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14227,42 +14353,46 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
       </c>
@@ -14310,22 +14440,22 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14339,21 +14469,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -14362,19 +14492,19 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14424,22 +14554,22 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>259</v>
+        <v>484</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14453,46 +14583,44 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -14540,22 +14668,22 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>281</v>
+        <v>485</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14569,10 +14697,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14580,7 +14708,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>86</v>
@@ -14595,16 +14723,16 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>152</v>
+        <v>477</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14654,10 +14782,10 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>86</v>
@@ -14683,10 +14811,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14697,7 +14825,7 @@
         <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>77</v>
@@ -14709,17 +14837,17 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -14768,13 +14896,13 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>77</v>
@@ -14797,10 +14925,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14811,7 +14939,7 @@
         <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>77</v>
@@ -14823,20 +14951,16 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>469</v>
+        <v>291</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>77</v>
       </c>
@@ -14884,22 +15008,22 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>468</v>
+        <v>274</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -14913,14 +15037,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -14939,18 +15063,18 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>473</v>
+        <v>323</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>77</v>
       </c>
@@ -14998,7 +15122,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15010,10 +15134,10 @@
         <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15027,14 +15151,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15047,23 +15171,25 @@
         <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>477</v>
+        <v>302</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O117" t="s" s="2">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -15112,7 +15238,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>476</v>
+        <v>304</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15124,18 +15250,590 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImplementationGuide.xlsx
+++ b/StructureDefinition-profile-ImplementationGuide.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1608207-06:00</t>
+    <t>2026-02-17T14:42:26.829173-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.versionAlgorithm[x]` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+    <t>Element `ImplementationGuide.versionAlgorithm[x]` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>Explanation of why this implementation guide is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.purpose` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+    <t>Element `ImplementationGuide.purpose` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>ImplementationGuide.extension:copyrightLabel</t>
@@ -501,7 +501,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.copyrightLabel` is will have a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+    <t>Element `ImplementationGuide.copyrightLabel` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>ImplementationGuide.modifierExtension</t>
@@ -895,7 +895,7 @@
     <t>The version(s) of the FHIR specification that this ImplementationGuide targets - e.g. describes how to use. The value of this element is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.fhirVersion`.</t>
+    <t>Element `ImplementationGuide.fhirVersion` has is mapped to FHIR R4 element `ImplementationGuide.fhirVersion`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImplementationGuide.fhirVersion.value</t>
@@ -932,23 +932,20 @@
     <t>ImplementationGuide.dependsOn.extension</t>
   </si>
   <si>
-    <t>ImplementationGuide.dependsOn.extension:reason</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn.reason|0.0.1-snapshot-3}
+    <t>ImplementationGuide.dependsOn.extension:dependsOn</t>
+  </si>
+  <si>
+    <t>dependsOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ImplementationGuide.dependsOn.reason from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A description explaining the nature of the dependency on the listed IG.</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.dependsOn.reason` is will have a context of ImplementationGuide.dependsOn based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+    <t>Cross-version extension for ImplementationGuide.dependsOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.dependsOn` has is mapped to FHIR R4 element `ImplementationGuide.dependsOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImplementationGuide.dependsOn.modifierExtension</t>
@@ -1023,10 +1020,20 @@
     <t>ImplementationGuide.global.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ImplementationGuide.global.extension:global</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.global from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.global` has is mapped to FHIR R4 element `ImplementationGuide.global`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImplementationGuide.global.modifierExtension</t>
@@ -1048,31 +1055,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.type.id</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.type.extension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.type.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.global.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.global.type` is mapped to FHIR R4 element `ImplementationGuide.global.type`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.type.value</t>
   </si>
   <si>
     <t>ImplementationGuide.global.profile</t>
@@ -1110,6 +1092,22 @@
     <t>ImplementationGuide.definition.extension</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.extension:definition</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.definition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition` has is mapped to FHIR R4 element `ImplementationGuide.definition`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.definition.modifierExtension</t>
   </si>
   <si>
@@ -1129,6 +1127,12 @@
   </si>
   <si>
     <t>ImplementationGuide.definition.grouping.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.grouping.modifierExtension</t>
@@ -1196,28 +1200,6 @@
   </si>
   <si>
     <t>The resource SHALL be valid against all the versions it is specified to apply to. If the resource referred to is a StructureDefinition, the fhirVersion stated in the StructureDefinition cannot disagree with the version specified here; the specified versions SHALL include the version specified by the StructureDefinition, and may include additional versions using the [applicable-version](http://hl7.org/fhir/R4/extension-structuredefinition-applicable-version.html) extension.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.resource.fhirVersion.id</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.resource.fhirVersion.extension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.resource.fhirVersion.extension:fhirVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.resource.fhirVersion|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.definition.resource.fhirVersion from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.definition.resource.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.definition.resource.fhirVersion`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.resource.fhirVersion.value</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.resource.name</t>
@@ -1291,26 +1273,6 @@
     <t>ImplementationGuide.definition.page.extension</t>
   </si>
   <si>
-    <t>ImplementationGuide.definition.page.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page.source|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.definition.page.source[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the URL or the actual content to provide for the page.</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.definition.page.source[x]` is part of an existing definition because parent element `ImplementationGuide.definition.page` requires a component extension (e.g., if this element is used as a content reference).
-Element `ImplementationGuide.definition.page.source[x]` is will have a context of ImplementationGuide.definition.page based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.page.modifierExtension</t>
   </si>
   <si>
@@ -1396,101 +1358,89 @@
     <t>http://hl7.org/fhir/ValueSet/guide-parameter-code|4.0.1</t>
   </si>
   <si>
-    <t>ImplementationGuide.definition.parameter.code.id</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.parameter.code.extension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.parameter.code.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter.code|0.0.1-snapshot-3}
+    <t>ImplementationGuide.definition.parameter.value</t>
+  </si>
+  <si>
+    <t>Value for named type</t>
+  </si>
+  <si>
+    <t>Value for named type.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template</t>
+  </si>
+  <si>
+    <t>A template for building resources</t>
+  </si>
+  <si>
+    <t>A template for building resources.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.id</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.modifierExtension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.code</t>
+  </si>
+  <si>
+    <t>Type of template specified</t>
+  </si>
+  <si>
+    <t>Type of template specified.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.source</t>
+  </si>
+  <si>
+    <t>The source location for the template</t>
+  </si>
+  <si>
+    <t>The source location for the template.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.template.scope</t>
+  </si>
+  <si>
+    <t>The scope in which the template applies</t>
+  </si>
+  <si>
+    <t>The scope in which the template applies.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.manifest</t>
+  </si>
+  <si>
+    <t>Information about an assembled IG</t>
+  </si>
+  <si>
+    <t>Information about an assembled implementation guide, created by the publication tooling.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.manifest.id</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.manifest.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.manifest.extension:manifest</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ImplementationGuide.definition.parameter.code from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A tool-specific code that defines the parameter.</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.definition.parameter.code` is mapped to FHIR R4 element `ImplementationGuide.definition.parameter.code`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.parameter.code.value</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.parameter.value</t>
-  </si>
-  <si>
-    <t>Value for named type</t>
-  </si>
-  <si>
-    <t>Value for named type.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template</t>
-  </si>
-  <si>
-    <t>A template for building resources</t>
-  </si>
-  <si>
-    <t>A template for building resources.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.id</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.extension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.modifierExtension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.code</t>
-  </si>
-  <si>
-    <t>Type of template specified</t>
-  </si>
-  <si>
-    <t>Type of template specified.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.source</t>
-  </si>
-  <si>
-    <t>The source location for the template</t>
-  </si>
-  <si>
-    <t>The source location for the template.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.definition.template.scope</t>
-  </si>
-  <si>
-    <t>The scope in which the template applies</t>
-  </si>
-  <si>
-    <t>The scope in which the template applies.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.manifest</t>
-  </si>
-  <si>
-    <t>Information about an assembled IG</t>
-  </si>
-  <si>
-    <t>Information about an assembled implementation guide, created by the publication tooling.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.manifest.id</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.manifest.extension</t>
+    <t>Cross-version extension for ImplementationGuide.manifest from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.manifest` has is mapped to FHIR R4 element `ImplementationGuide.manifest`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImplementationGuide.manifest.modifierExtension</t>
@@ -1927,7 +1877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN122"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1936,8 +1886,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1946,7 +1896,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6101,7 +6051,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6119,10 +6069,10 @@
         <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6201,14 +6151,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6230,10 +6180,10 @@
         <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>161</v>
@@ -6288,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6317,10 +6267,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6343,16 +6293,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6402,7 +6352,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -6431,10 +6381,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6460,10 +6410,10 @@
         <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6514,7 +6464,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6543,10 +6493,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6572,13 +6522,13 @@
         <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6628,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6657,10 +6607,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6686,13 +6636,13 @@
         <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6742,7 +6692,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6771,10 +6721,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6883,14 +6833,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6912,14 +6862,12 @@
         <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>132</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6956,16 +6904,14 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>276</v>
@@ -6983,7 +6929,7 @@
         <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6997,14 +6943,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7017,26 +6965,24 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7084,7 +7030,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7093,13 +7039,13 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7113,44 +7059,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7174,13 +7122,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7198,22 +7146,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7227,10 +7175,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7238,7 +7186,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -7250,18 +7198,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7286,13 +7236,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7310,10 +7260,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -7322,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7339,10 +7289,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7353,7 +7303,7 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7362,16 +7312,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7410,29 +7360,31 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7449,20 +7401,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7477,16 +7427,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7536,19 +7486,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7565,10 +7515,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7594,10 +7544,10 @@
         <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7648,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7663,7 +7613,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7677,10 +7627,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7688,10 +7638,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7700,16 +7650,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7748,31 +7698,29 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7789,12 +7737,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7815,16 +7765,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7874,19 +7824,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7903,42 +7853,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7986,22 +7940,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8015,14 +7969,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8041,16 +7995,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8100,7 +8054,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8112,10 +8066,10 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8129,46 +8083,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8216,22 +8166,22 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8245,14 +8195,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8271,16 +8221,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8330,7 +8280,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8342,10 +8292,10 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8359,42 +8309,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8442,22 +8396,22 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8471,21 +8425,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8497,17 +8451,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8556,22 +8508,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8585,46 +8537,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8672,22 +8620,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8701,10 +8649,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8715,7 +8663,7 @@
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8727,13 +8675,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8784,13 +8732,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8813,10 +8761,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8842,10 +8790,10 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8896,7 +8844,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8908,10 +8856,10 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8925,18 +8873,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8951,15 +8899,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9008,10 +8958,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9020,10 +8970,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9037,42 +8987,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9120,22 +9074,22 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9149,21 +9103,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9175,16 +9129,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>161</v>
+        <v>376</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9234,22 +9188,22 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9263,14 +9217,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9283,26 +9237,24 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9326,13 +9278,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9350,7 +9302,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>304</v>
+        <v>377</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9362,10 +9314,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9379,10 +9331,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9390,7 +9342,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -9405,17 +9357,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9464,10 +9414,10 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>86</v>
@@ -9493,10 +9443,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9507,7 +9457,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9519,16 +9469,16 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9554,13 +9504,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9578,13 +9528,13 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
@@ -9607,10 +9557,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9633,15 +9583,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>272</v>
+        <v>390</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9690,7 +9642,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9702,7 +9654,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9719,10 +9671,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9733,7 +9685,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9745,15 +9697,17 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9790,29 +9744,31 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9829,14 +9785,12 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9845,7 +9799,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9857,16 +9811,16 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9916,19 +9870,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9945,10 +9899,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9974,10 +9928,10 @@
         <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10028,7 +9982,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10043,7 +9997,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10057,21 +10011,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10083,15 +10037,17 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10140,22 +10096,22 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10169,44 +10125,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10254,22 +10212,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10283,10 +10241,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10294,7 +10252,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10309,16 +10267,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10368,10 +10326,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10397,10 +10355,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10408,7 +10366,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>86</v>
@@ -10423,17 +10381,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10482,10 +10438,10 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>86</v>
@@ -10511,10 +10467,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10522,7 +10478,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -10537,17 +10493,15 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>287</v>
+        <v>106</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10572,13 +10526,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10596,10 +10550,10 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>86</v>
@@ -10625,10 +10579,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10639,7 +10593,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10651,15 +10605,17 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10708,22 +10664,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10737,10 +10693,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10763,13 +10719,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>133</v>
+        <v>422</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10808,17 +10764,19 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10830,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10847,14 +10805,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10875,17 +10831,15 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10934,22 +10888,22 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10963,14 +10917,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10983,26 +10937,24 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O80" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11050,7 +11002,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11065,7 +11017,7 @@
         <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11079,44 +11031,46 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>417</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>419</v>
+        <v>302</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11164,22 +11118,22 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11193,10 +11147,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11219,13 +11173,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11252,13 +11206,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11276,7 +11230,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11305,10 +11259,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11331,13 +11285,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11364,13 +11318,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11388,7 +11342,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -11417,10 +11371,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11443,17 +11397,15 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11502,7 +11454,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11531,10 +11483,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11545,7 +11497,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11557,13 +11509,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>433</v>
+        <v>291</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>434</v>
+        <v>292</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11614,22 +11566,22 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>432</v>
+        <v>274</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11643,21 +11595,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11669,15 +11621,17 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11726,19 +11680,19 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>84</v>
@@ -11755,14 +11709,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11775,24 +11729,26 @@
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11840,7 +11796,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11855,7 +11811,7 @@
         <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11869,46 +11825,42 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>302</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11956,22 +11908,22 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11985,10 +11937,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12011,13 +11963,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12044,13 +11996,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12068,7 +12020,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12097,10 +12049,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12126,10 +12078,10 @@
         <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12180,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>274</v>
+        <v>446</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12192,7 +12144,7 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12209,10 +12161,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12220,10 +12172,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12235,13 +12187,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>132</v>
+        <v>450</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>133</v>
+        <v>451</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12280,29 +12232,31 @@
         <v>77</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -12319,20 +12273,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>86</v>
@@ -12347,17 +12299,15 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>447</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>448</v>
+        <v>291</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
@@ -12406,22 +12356,22 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12435,10 +12385,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12449,7 +12399,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12461,13 +12411,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12506,31 +12456,29 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC93" s="2"/>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
@@ -12547,18 +12495,20 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>86</v>
@@ -12573,15 +12523,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12630,19 +12582,19 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -12659,14 +12611,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12679,22 +12631,26 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12742,7 +12698,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12754,10 +12710,10 @@
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12771,10 +12727,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12794,16 +12750,16 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>291</v>
+        <v>462</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12854,7 +12810,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12866,10 +12822,10 @@
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12883,18 +12839,18 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -12906,20 +12862,18 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -12968,10 +12922,10 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>276</v>
+        <v>464</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -12980,10 +12934,10 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12997,46 +12951,42 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13084,22 +13034,22 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13113,21 +13063,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -13139,15 +13089,17 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13196,22 +13148,22 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>461</v>
+        <v>276</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13225,42 +13177,46 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>465</v>
+        <v>301</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13308,22 +13264,22 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>464</v>
+        <v>303</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13337,10 +13293,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13348,7 +13304,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>86</v>
@@ -13360,18 +13316,20 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13420,10 +13378,10 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>86</v>
@@ -13449,10 +13407,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13475,15 +13433,17 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13532,7 +13492,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13561,10 +13521,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13587,15 +13547,17 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>291</v>
+        <v>472</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13644,7 +13606,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>274</v>
+        <v>471</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13656,10 +13618,10 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13673,14 +13635,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13699,18 +13661,18 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>323</v>
+        <v>476</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
@@ -13758,7 +13720,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13770,10 +13732,10 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13787,46 +13749,42 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13874,22 +13832,22 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -13903,21 +13861,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -13926,18 +13884,20 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>477</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>478</v>
+        <v>357</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13986,22 +13946,22 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>476</v>
+        <v>276</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14015,18 +13975,18 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -14035,22 +13995,26 @@
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14098,10 +14062,10 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -14110,10 +14074,10 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14127,10 +14091,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14138,7 +14102,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>86</v>
@@ -14156,12 +14120,14 @@
         <v>173</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>291</v>
+        <v>483</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -14210,10 +14176,10 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>86</v>
@@ -14222,10 +14188,10 @@
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14239,21 +14205,21 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14265,18 +14231,18 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>323</v>
+        <v>487</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14324,22 +14290,22 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>276</v>
+        <v>486</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14353,14 +14319,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14373,25 +14339,25 @@
         <v>77</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>302</v>
+        <v>491</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>303</v>
+        <v>492</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>161</v>
+        <v>493</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14440,7 +14406,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>304</v>
+        <v>490</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14452,10 +14418,10 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14469,10 +14435,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14480,10 +14446,10 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -14492,21 +14458,21 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>373</v>
+        <v>495</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14554,13 +14520,13 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>77</v>
@@ -14583,10 +14549,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14597,7 +14563,7 @@
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
@@ -14609,18 +14575,18 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>395</v>
+        <v>173</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -14668,13 +14634,13 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>77</v>
@@ -14692,1148 +14658,6 @@
         <v>77</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN122" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImplementationGuide.xlsx
+++ b/StructureDefinition-profile-ImplementationGuide.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.829173-06:00</t>
+    <t>2026-02-20T11:59:20.849213-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,13 +443,73 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ImplementationGuide.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ImplementationGuide.copyrightLabel` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `ImplementationGuide.identifier` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-purpose}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
+Element `ImplementationGuide.purpose` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -459,49 +519,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.versionAlgorithm[x]` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.purpose|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explanation of why this implementation guide is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.purpose` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.copyrightLabel` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ImplementationGuide.versionAlgorithm[x]` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>ImplementationGuide.modifierExtension</t>
@@ -885,7 +904,7 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.fhirVersion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.fhirVersion}
 </t>
   </si>
   <si>
@@ -896,6 +915,10 @@
   </si>
   <si>
     <t>Element `ImplementationGuide.fhirVersion` has is mapped to FHIR R4 element `ImplementationGuide.fhirVersion`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ImplementationGuide.fhirVersion.value</t>
@@ -938,7 +961,7 @@
     <t>dependsOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn}
 </t>
   </si>
   <si>
@@ -1026,7 +1049,7 @@
     <t>global</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global}
 </t>
   </si>
   <si>
@@ -1098,7 +1121,7 @@
     <t>definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition}
 </t>
   </si>
   <si>
@@ -1433,7 +1456,7 @@
     <t>manifest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest}
 </t>
   </si>
   <si>
@@ -1877,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1896,7 +1919,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3051,7 +3074,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -3071,13 +3094,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -3087,7 +3110,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3099,16 +3122,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3167,7 +3190,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -3187,13 +3210,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -3215,16 +3238,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3283,7 +3306,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -3303,33 +3326,35 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -3340,9 +3365,7 @@
       <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3390,7 +3413,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3405,7 +3428,7 @@
         <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3419,45 +3442,45 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3506,28 +3529,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3535,18 +3558,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3561,18 +3584,20 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3620,10 +3645,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3638,10 +3663,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3649,10 +3674,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3660,7 +3685,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3675,20 +3700,18 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3736,16 +3759,16 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3754,10 +3777,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3765,10 +3788,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3776,7 +3799,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3791,18 +3814,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3850,16 +3875,16 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -3868,7 +3893,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3890,7 +3915,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3899,13 +3924,13 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>191</v>
@@ -3940,13 +3965,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3967,7 +3992,7 @@
         <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3982,10 +4007,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3993,10 +4018,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4004,7 +4029,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -4013,26 +4038,24 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4056,13 +4079,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4080,10 +4103,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -4098,10 +4121,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4109,14 +4132,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4135,18 +4158,20 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4194,7 +4219,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4212,10 +4237,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4223,14 +4248,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4249,20 +4274,18 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4310,7 +4333,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4328,10 +4351,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4339,10 +4362,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4353,7 +4376,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4365,18 +4388,20 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4424,13 +4449,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4442,10 +4467,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4453,10 +4478,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4467,7 +4492,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4476,19 +4501,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4538,13 +4563,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4556,7 +4581,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4567,10 +4592,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4581,7 +4606,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4590,23 +4615,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4654,13 +4677,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4683,10 +4706,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4709,18 +4732,20 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4744,13 +4769,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4768,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4786,7 +4811,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4797,21 +4822,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4820,21 +4845,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4858,13 +4883,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4882,13 +4907,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4900,29 +4925,29 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4934,21 +4959,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4996,10 +5021,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -5014,21 +5039,21 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5036,7 +5061,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5051,15 +5076,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5084,13 +5111,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5108,10 +5135,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -5148,10 +5175,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5171,9 +5198,7 @@
       <c r="M29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5198,13 +5223,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5225,10 +5250,10 @@
         <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5251,10 +5276,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5262,10 +5287,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5274,18 +5299,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5310,13 +5337,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5334,19 +5361,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5363,10 +5390,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5374,10 +5401,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5389,13 +5416,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5434,29 +5461,31 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5473,14 +5502,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5501,17 +5528,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5548,19 +5573,17 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5569,7 +5592,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>137</v>
@@ -5589,21 +5612,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5615,15 +5640,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5672,19 +5699,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5701,10 +5728,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5715,7 +5742,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5724,16 +5751,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5784,19 +5811,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5813,10 +5840,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5827,7 +5854,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5836,16 +5863,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5896,22 +5923,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5925,10 +5952,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5939,7 +5966,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5951,13 +5978,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5996,32 +6023,34 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6035,14 +6064,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6063,17 +6090,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6110,19 +6135,17 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>137</v>
@@ -6151,14 +6174,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6171,26 +6196,24 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6238,7 +6261,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6247,13 +6270,13 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6267,44 +6290,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6352,22 +6377,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6381,10 +6406,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6392,7 +6417,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6407,15 +6432,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6464,10 +6491,10 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>86</v>
@@ -6493,10 +6520,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6519,17 +6546,15 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6578,7 +6603,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6607,10 +6632,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6621,7 +6646,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6633,16 +6658,16 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6692,13 +6717,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6721,10 +6746,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6735,7 +6760,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6744,18 +6769,20 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6804,22 +6831,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6833,10 +6860,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6847,7 +6874,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6859,13 +6886,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6904,32 +6931,34 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6943,14 +6972,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6971,17 +6998,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7018,19 +7043,17 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7039,7 +7062,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>137</v>
@@ -7059,14 +7082,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7079,26 +7104,24 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7146,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7155,13 +7178,13 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7175,44 +7198,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7236,13 +7261,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7260,22 +7285,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7315,15 +7340,17 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7348,13 +7375,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7401,10 +7428,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7412,7 +7439,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7424,20 +7451,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7486,10 +7511,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>86</v>
@@ -7498,7 +7523,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7515,10 +7540,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7541,15 +7566,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7625,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7610,10 +7637,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7627,10 +7654,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7641,7 +7668,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7653,13 +7680,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7698,32 +7725,34 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7737,14 +7766,12 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7753,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7765,17 +7792,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7812,19 +7837,17 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7833,7 +7856,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>137</v>
@@ -7853,46 +7876,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7940,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7949,13 +7972,13 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7969,14 +7992,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7989,24 +8012,26 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8054,7 +8079,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8066,10 +8091,10 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8083,10 +8108,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8097,7 +8122,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8109,15 +8134,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8166,22 +8193,22 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8195,21 +8222,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8221,17 +8248,15 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8280,19 +8305,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>84</v>
@@ -8309,14 +8334,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8329,26 +8354,24 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8396,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8434,7 @@
         <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8425,42 +8448,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8508,22 +8535,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8537,10 +8564,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8548,7 +8575,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8563,13 +8590,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8620,10 +8647,10 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8649,10 +8676,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8660,10 +8687,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8675,13 +8702,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8732,13 +8759,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8761,10 +8788,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8772,10 +8799,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8787,13 +8814,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8844,22 +8871,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>274</v>
+        <v>372</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8873,21 +8900,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8899,17 +8926,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8958,19 +8983,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>84</v>
@@ -8987,14 +9012,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9007,26 +9032,24 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9074,7 +9097,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9089,7 +9112,7 @@
         <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9103,44 +9126,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9188,22 +9213,22 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9217,10 +9242,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9228,10 +9253,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9243,16 +9268,16 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9278,13 +9303,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9302,13 +9327,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9331,10 +9356,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9345,7 +9370,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9357,15 +9382,17 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9390,13 +9417,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9414,13 +9441,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9443,10 +9470,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9469,17 +9496,15 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9528,7 +9553,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9557,10 +9582,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9583,16 +9608,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9642,7 +9667,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9671,10 +9696,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9697,16 +9722,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9756,7 +9781,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9785,10 +9810,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9811,16 +9836,16 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9870,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9899,10 +9924,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9925,15 +9950,17 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9982,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>274</v>
+        <v>403</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9994,10 +10021,10 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10011,21 +10038,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10037,17 +10064,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10096,19 +10121,19 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>84</v>
@@ -10125,14 +10150,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10145,26 +10170,24 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10212,7 +10235,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10227,7 +10250,7 @@
         <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10241,44 +10264,46 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10326,22 +10351,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10355,10 +10380,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10381,15 +10406,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10438,7 +10465,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>86</v>
@@ -10467,10 +10494,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10493,13 +10520,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10526,31 +10553,31 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -10579,10 +10606,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10590,10 +10617,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10605,17 +10632,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10640,13 +10665,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10664,13 +10689,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -10693,10 +10718,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10719,15 +10744,17 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10776,7 +10803,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10805,10 +10832,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10819,7 +10846,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10831,13 +10858,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>292</v>
+        <v>428</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10888,22 +10915,22 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>274</v>
+        <v>426</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10917,21 +10944,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10943,17 +10970,15 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11002,19 +11027,19 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>84</v>
@@ -11031,14 +11056,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11051,26 +11076,24 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11118,7 +11141,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11133,7 +11156,7 @@
         <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11147,42 +11170,46 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11206,13 +11233,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11230,22 +11257,22 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>426</v>
+        <v>309</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11259,10 +11286,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11285,13 +11312,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11318,13 +11345,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11342,7 +11369,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -11371,10 +11398,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11382,10 +11409,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11397,13 +11424,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11454,13 +11481,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11483,10 +11510,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11497,7 +11524,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11509,13 +11536,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>291</v>
+        <v>441</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11566,22 +11593,22 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11595,21 +11622,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11621,17 +11648,15 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11680,19 +11705,19 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>84</v>
@@ -11709,14 +11734,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11729,26 +11754,24 @@
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11796,7 +11819,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11811,7 +11834,7 @@
         <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11825,42 +11848,46 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>441</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11908,22 +11935,22 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>440</v>
+        <v>309</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11937,10 +11964,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11963,13 +11990,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12020,7 +12047,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12049,10 +12076,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12060,7 +12087,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12075,13 +12102,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12132,10 +12159,10 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12161,10 +12188,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12187,13 +12214,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12244,7 +12271,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12273,10 +12300,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12299,13 +12326,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12356,7 +12383,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>274</v>
+        <v>455</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12368,10 +12395,10 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12385,10 +12412,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12399,7 +12426,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12411,13 +12438,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12456,32 +12483,34 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12495,14 +12524,12 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12511,7 +12538,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12523,17 +12550,15 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>456</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>457</v>
+        <v>132</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12570,19 +12595,17 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12591,7 +12614,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>137</v>
@@ -12611,46 +12634,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>131</v>
+        <v>462</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>301</v>
+        <v>463</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>302</v>
+        <v>457</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12698,7 +12721,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12707,13 +12730,13 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12727,42 +12750,46 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>461</v>
+        <v>131</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>462</v>
+        <v>307</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12810,22 +12837,22 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>460</v>
+        <v>309</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12839,10 +12866,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12850,10 +12877,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -12865,13 +12892,13 @@
         <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>287</v>
+        <v>467</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>367</v>
+        <v>468</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>368</v>
+        <v>469</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12922,13 +12949,13 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
@@ -12951,10 +12978,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12962,10 +12989,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -12974,16 +13001,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13034,22 +13061,22 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>274</v>
+        <v>470</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13063,21 +13090,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -13089,17 +13116,15 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13148,19 +13173,19 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>84</v>
@@ -13177,14 +13202,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13197,26 +13222,24 @@
         <v>77</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13264,7 +13287,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13279,7 +13302,7 @@
         <v>137</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13293,44 +13316,46 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13378,22 +13403,22 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>468</v>
+        <v>309</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13407,10 +13432,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13418,7 +13443,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>86</v>
@@ -13430,19 +13455,19 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13492,10 +13517,10 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>86</v>
@@ -13521,10 +13546,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13547,16 +13572,16 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13606,7 +13631,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13635,10 +13660,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13649,7 +13674,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
@@ -13661,18 +13686,18 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>287</v>
+        <v>467</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
@@ -13720,13 +13745,13 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
@@ -13749,10 +13774,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13763,7 +13788,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -13775,16 +13800,18 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>292</v>
+        <v>483</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13832,22 +13859,22 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>274</v>
+        <v>481</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -13861,21 +13888,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -13887,17 +13914,15 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13946,19 +13971,19 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>84</v>
@@ -13975,14 +14000,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13995,26 +14020,24 @@
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14062,7 +14085,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14077,7 +14100,7 @@
         <v>137</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14091,44 +14114,46 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>483</v>
+        <v>307</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
       </c>
@@ -14176,22 +14201,22 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>482</v>
+        <v>309</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14205,10 +14230,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14216,7 +14241,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>86</v>
@@ -14231,18 +14256,18 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14290,10 +14315,10 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>86</v>
@@ -14319,10 +14344,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14333,7 +14358,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
@@ -14345,19 +14370,17 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14406,13 +14429,13 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>77</v>
@@ -14435,10 +14458,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14461,17 +14484,19 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O111" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -14520,7 +14545,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14549,10 +14574,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14575,17 +14600,17 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
@@ -14634,7 +14659,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14658,6 +14683,120 @@
         <v>77</v>
       </c>
       <c r="AN112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImplementationGuide.xlsx
+++ b/StructureDefinition-profile-ImplementationGuide.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.849213-06:00</t>
+    <t>2026-02-21T13:36:54.2533737-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImplementationGuide|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,21 +419,21 @@
     <t>ImplementationGuide.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -443,91 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ImplementationGuide.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ImplementationGuide.copyrightLabel` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `ImplementationGuide.identifier` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-purpose}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
-Element `ImplementationGuide.purpose` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImplementationGuide.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ImplementationGuide.versionAlgorithm[x]` has a context of ImplementationGuide based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
-  </si>
-  <si>
     <t>ImplementationGuide.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -535,9 +451,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -895,6 +808,19 @@
     <t>ImplementationGuide.fhirVersion.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -904,7 +830,7 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.fhirVersion}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.fhirVersion|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -914,7 +840,7 @@
     <t>The version(s) of the FHIR specification that this ImplementationGuide targets - e.g. describes how to use. The value of this element is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t>Element `ImplementationGuide.fhirVersion` has is mapped to FHIR R4 element `ImplementationGuide.fhirVersion`, but has no comparisons.</t>
+    <t>Element `ImplementationGuide.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.fhirVersion` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -955,20 +881,23 @@
     <t>ImplementationGuide.dependsOn.extension</t>
   </si>
   <si>
-    <t>ImplementationGuide.dependsOn.extension:dependsOn</t>
-  </si>
-  <si>
-    <t>dependsOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn}
+    <t>ImplementationGuide.dependsOn.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.dependsOn.reason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ImplementationGuide.dependsOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.dependsOn` has is mapped to FHIR R4 element `ImplementationGuide.dependsOn`, but has no comparisons.</t>
+    <t>Cross-version extension for ImplementationGuide.dependsOn.reason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A description explaining the nature of the dependency on the listed IG.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.dependsOn.reason` has a context of ImplementationGuide.dependsOn based on following the parent source element upwards and mapping to `ImplementationGuide`.</t>
   </si>
   <si>
     <t>ImplementationGuide.dependsOn.modifierExtension</t>
@@ -1043,41 +972,53 @@
     <t>ImplementationGuide.global.extension</t>
   </si>
   <si>
-    <t>ImplementationGuide.global.extension:global</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global}
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.modifierExtension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type</t>
+  </si>
+  <si>
+    <t>Type this profile applies to</t>
+  </si>
+  <si>
+    <t>The type of resource that all instances must conform to.</t>
+  </si>
+  <si>
+    <t>The type must match that of the profile that is referred to but is made explicit here as a denormalization so that a system processing the implementation guide resource knows which resources the profile applies to even if the profile itself is not available.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type.id</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.global.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ImplementationGuide.global from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.global` has is mapped to FHIR R4 element `ImplementationGuide.global`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.modifierExtension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.global.type</t>
-  </si>
-  <si>
-    <t>Type this profile applies to</t>
-  </si>
-  <si>
-    <t>The type of resource that all instances must conform to.</t>
-  </si>
-  <si>
-    <t>The type must match that of the profile that is referred to but is made explicit here as a denormalization so that a system processing the implementation guide resource knows which resources the profile applies to even if the profile itself is not available.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+    <t>Cross-version extension for ImplementationGuide.global.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.global.type` is mapped to FHIR R4 element `ImplementationGuide.global.type` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.global.type.value</t>
   </si>
   <si>
     <t>ImplementationGuide.global.profile</t>
@@ -1115,22 +1056,6 @@
     <t>ImplementationGuide.definition.extension</t>
   </si>
   <si>
-    <t>ImplementationGuide.definition.extension:definition</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.definition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.definition` has is mapped to FHIR R4 element `ImplementationGuide.definition`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>ImplementationGuide.definition.modifierExtension</t>
   </si>
   <si>
@@ -1150,12 +1075,6 @@
   </si>
   <si>
     <t>ImplementationGuide.definition.grouping.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.grouping.modifierExtension</t>
@@ -1223,6 +1142,28 @@
   </si>
   <si>
     <t>The resource SHALL be valid against all the versions it is specified to apply to. If the resource referred to is a StructureDefinition, the fhirVersion stated in the StructureDefinition cannot disagree with the version specified here; the specified versions SHALL include the version specified by the StructureDefinition, and may include additional versions using the [applicable-version](http://hl7.org/fhir/R4/extension-structuredefinition-applicable-version.html) extension.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.resource.fhirVersion.id</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.resource.fhirVersion.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.resource.fhirVersion.extension:fhirVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.resource.fhirVersion|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.definition.resource.fhirVersion from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition.resource.fhirVersion` is mapped to FHIR R4 element `ImplementationGuide.definition.resource.fhirVersion` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.resource.fhirVersion.value</t>
   </si>
   <si>
     <t>ImplementationGuide.definition.resource.name</t>
@@ -1296,6 +1237,26 @@
     <t>ImplementationGuide.definition.page.extension</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.page.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.page.source|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.definition.page.source[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the URL or the actual content to provide for the page.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition.page.source[x]` has a context of ImplementationGuide.definition.page based on following the parent source element upwards and mapping to `ImplementationGuide`.
+Note available implied context: `ImplementationGuide.definition.page.page` because `ImplementationGuide.definition.page.page` is defined via a content reference to `ImplementationGuide.definition.page`.</t>
+  </si>
+  <si>
     <t>ImplementationGuide.definition.page.modifierExtension</t>
   </si>
   <si>
@@ -1381,6 +1342,34 @@
     <t>http://hl7.org/fhir/ValueSet/guide-parameter-code|4.0.1</t>
   </si>
   <si>
+    <t>ImplementationGuide.definition.parameter.code.id</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.parameter.code.extension</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.parameter.code.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.definition.parameter.code|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImplementationGuide.definition.parameter.code from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A tool-specific code that defines the parameter.</t>
+  </si>
+  <si>
+    <t>Element `ImplementationGuide.definition.parameter.code` is mapped to FHIR R4 element `ImplementationGuide.definition.parameter.code` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImplementationGuide.definition.parameter.code.value</t>
+  </si>
+  <si>
     <t>ImplementationGuide.definition.parameter.value</t>
   </si>
   <si>
@@ -1448,22 +1437,6 @@
   </si>
   <si>
     <t>ImplementationGuide.manifest.extension</t>
-  </si>
-  <si>
-    <t>ImplementationGuide.manifest.extension:manifest</t>
-  </si>
-  <si>
-    <t>manifest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImplementationGuide.manifest}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImplementationGuide.manifest from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImplementationGuide.manifest` has is mapped to FHIR R4 element `ImplementationGuide.manifest`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImplementationGuide.manifest.modifierExtension</t>
@@ -1900,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1909,9 +1882,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.99609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="61.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1919,7 +1892,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2875,7 +2848,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2894,15 +2867,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2939,14 +2914,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2964,7 +2941,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2981,43 +2958,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3065,7 +3042,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3080,7 +3057,7 @@
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3094,23 +3071,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3119,21 +3094,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3181,28 +3158,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3210,14 +3187,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>151</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3235,7 +3210,7 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>152</v>
@@ -3297,28 +3272,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3326,20 +3301,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -3351,10 +3324,10 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -3365,7 +3338,9 @@
       <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3413,19 +3388,19 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3442,46 +3417,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>167</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3529,25 +3502,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3565,7 +3538,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3578,26 +3551,24 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3621,13 +3592,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3663,10 +3634,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3674,10 +3645,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3700,18 +3671,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3759,7 +3732,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3777,10 +3750,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3788,18 +3761,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3814,20 +3787,18 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3875,16 +3846,16 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -3893,10 +3864,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3904,10 +3875,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3930,18 +3901,20 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3989,7 +3962,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4007,10 +3980,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4018,10 +3991,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4029,31 +4002,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4079,37 +4052,37 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4121,10 +4094,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4132,10 +4105,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4155,23 +4128,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4219,7 +4190,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4237,10 +4208,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4248,21 +4219,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4285,7 +4256,9 @@
       <c r="N21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4333,13 +4306,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4351,10 +4324,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4376,7 +4349,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4388,20 +4361,18 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
         <v>223</v>
       </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4425,13 +4396,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4455,7 +4426,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4467,10 +4438,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4478,21 +4449,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4501,21 +4472,21 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4563,13 +4534,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4581,21 +4552,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4603,7 +4574,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4615,19 +4586,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4677,10 +4648,10 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4695,7 +4666,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4706,10 +4677,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4720,7 +4691,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4732,7 +4703,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>240</v>
@@ -4740,12 +4711,8 @@
       <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4769,13 +4736,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4793,13 +4760,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4811,7 +4778,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4822,10 +4789,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4833,7 +4800,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4848,16 +4815,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4883,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4907,10 +4874,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4892,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4936,14 +4903,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4962,18 +4929,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5021,7 +4986,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5033,27 +4998,27 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5064,7 +5029,7 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5073,20 +5038,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5123,31 +5086,29 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5164,21 +5125,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5187,18 +5150,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5188,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5247,19 +5212,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5276,10 +5241,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5287,10 +5252,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5299,20 +5264,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5337,13 +5300,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5361,19 +5324,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5390,10 +5353,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5404,7 +5367,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5413,16 +5376,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5473,19 +5436,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5502,10 +5465,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5513,10 +5476,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5528,13 +5491,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5573,32 +5536,34 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5612,20 +5577,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5640,17 +5603,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5687,19 +5648,17 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5708,7 +5667,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>137</v>
@@ -5728,12 +5687,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5754,15 +5715,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5811,19 +5774,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5840,14 +5803,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5860,22 +5823,26 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5923,7 +5890,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5935,10 +5902,10 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5952,10 +5919,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5963,7 +5930,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5975,18 +5942,20 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6035,10 +6004,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -6047,10 +6016,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6064,10 +6033,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6078,7 +6047,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6087,16 +6056,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6135,29 +6104,31 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6174,14 +6145,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6190,7 +6159,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6199,19 +6168,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6261,19 +6230,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6290,14 +6259,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6310,26 +6279,24 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6377,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6389,10 +6356,10 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6406,10 +6373,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6417,7 +6384,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6429,20 +6396,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6491,10 +6456,10 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>86</v>
@@ -6503,10 +6468,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6520,21 +6485,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6543,18 +6508,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6603,22 +6570,22 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6632,44 +6599,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6717,22 +6686,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6746,10 +6715,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6757,10 +6726,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6772,16 +6741,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6807,13 +6776,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6831,13 +6800,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6860,10 +6829,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6886,13 +6855,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6943,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6958,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6972,10 +6941,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6983,7 +6952,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6998,13 +6967,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7043,17 +7012,17 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7082,23 +7051,23 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7110,16 +7079,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7169,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7178,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>137</v>
@@ -7198,46 +7167,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7285,22 +7250,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7314,10 +7279,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7340,17 +7305,15 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7375,13 +7338,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7399,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7428,10 +7391,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7439,7 +7402,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7451,18 +7414,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7511,10 +7476,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>86</v>
@@ -7523,7 +7488,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7540,10 +7505,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7566,17 +7531,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7625,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7637,10 +7600,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7654,21 +7617,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7680,15 +7643,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7737,19 +7702,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>84</v>
@@ -7766,14 +7731,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7786,22 +7751,26 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7837,17 +7806,19 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7862,7 +7833,7 @@
         <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7876,14 +7847,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7892,7 +7861,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7904,16 +7873,16 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7963,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7972,10 +7941,10 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7992,46 +7961,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8079,22 +8044,22 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8108,14 +8073,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8134,16 +8099,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8193,7 +8158,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8205,10 +8170,10 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8222,42 +8187,46 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8305,22 +8274,22 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8334,21 +8303,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8360,17 +8329,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8419,22 +8386,22 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8448,46 +8415,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8535,22 +8498,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8564,10 +8527,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8578,7 +8541,7 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8590,13 +8553,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8647,13 +8610,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8676,10 +8639,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8702,13 +8665,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8759,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8771,10 +8734,10 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8788,10 +8751,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8799,7 +8762,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8814,13 +8777,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>255</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8859,22 +8822,20 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8883,7 +8844,7 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8900,42 +8861,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8983,22 +8948,22 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9012,21 +8977,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -9038,16 +9003,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9097,22 +9062,22 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9126,14 +9091,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9146,26 +9111,24 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9189,13 +9152,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9176,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9225,10 +9188,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9242,10 +9205,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9253,7 +9216,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>86</v>
@@ -9268,17 +9231,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>379</v>
+        <v>152</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9327,10 +9288,10 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>86</v>
@@ -9339,7 +9300,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9356,10 +9317,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9382,17 +9343,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9417,31 +9376,29 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9453,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9470,12 +9427,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9484,7 +9443,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9496,15 +9455,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9553,19 +9514,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9582,10 +9543,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9608,17 +9569,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9667,7 +9626,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9679,7 +9638,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9696,10 +9655,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9722,17 +9681,15 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9781,7 +9738,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9810,10 +9767,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9836,16 +9793,16 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9895,7 +9852,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9924,10 +9881,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9950,16 +9907,16 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10009,7 +9966,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10038,10 +9995,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10064,15 +10021,17 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10121,7 +10080,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10133,10 +10092,10 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10150,21 +10109,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10176,16 +10135,16 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>166</v>
+        <v>389</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10235,22 +10194,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10264,46 +10223,42 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10351,22 +10306,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10380,10 +10335,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10391,10 +10346,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10406,17 +10361,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>411</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10453,31 +10406,29 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10494,18 +10445,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -10520,15 +10473,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>178</v>
+        <v>394</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10577,19 +10532,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10606,42 +10561,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>419</v>
+        <v>286</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10665,13 +10624,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10689,22 +10648,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>418</v>
+        <v>288</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10718,10 +10677,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10729,10 +10688,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10744,16 +10703,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10803,13 +10762,13 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
@@ -10832,10 +10791,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10843,10 +10802,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10858,13 +10817,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10915,13 +10874,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10944,10 +10903,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10955,7 +10914,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -10970,13 +10929,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11003,13 +10962,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11027,10 +10986,10 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>86</v>
@@ -11039,10 +10998,10 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11056,14 +11015,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11082,16 +11041,16 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11141,7 +11100,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11153,10 +11112,10 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11170,14 +11129,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11190,26 +11149,22 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11257,7 +11212,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11269,10 +11224,10 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11286,10 +11241,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11297,7 +11252,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>86</v>
@@ -11312,13 +11267,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>433</v>
+        <v>275</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11345,13 +11300,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11369,10 +11324,10 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>432</v>
+        <v>253</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>86</v>
@@ -11381,10 +11336,10 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11398,21 +11353,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11424,15 +11379,17 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>438</v>
+        <v>133</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11481,22 +11438,22 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>437</v>
+        <v>259</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11510,14 +11467,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11530,22 +11487,26 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11593,7 +11554,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>440</v>
+        <v>288</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11605,10 +11566,10 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11622,10 +11583,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11633,7 +11594,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>86</v>
@@ -11648,13 +11609,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>298</v>
+        <v>423</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11681,13 +11642,13 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>77</v>
@@ -11705,10 +11666,10 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>86</v>
@@ -11717,10 +11678,10 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11734,21 +11695,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11760,17 +11721,15 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11819,22 +11778,22 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11848,18 +11807,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -11868,26 +11827,22 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11923,19 +11878,17 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11950,7 +11903,7 @@
         <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11964,12 +11917,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11990,15 +11945,17 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -12047,19 +12004,19 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>446</v>
+        <v>259</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -12076,10 +12033,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12087,7 +12044,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12102,13 +12059,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>451</v>
+        <v>268</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12159,10 +12116,10 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>449</v>
+        <v>269</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12171,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12188,10 +12145,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12199,7 +12156,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -12214,13 +12171,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12271,10 +12228,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12300,10 +12257,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12314,7 +12271,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12326,13 +12283,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12383,13 +12340,13 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
@@ -12412,10 +12369,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12438,13 +12395,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12495,7 +12452,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12524,14 +12481,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12550,15 +12507,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12595,17 +12554,19 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12620,7 +12581,7 @@
         <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12634,46 +12595,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12721,7 +12682,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12730,13 +12691,13 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12750,46 +12711,42 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>307</v>
+        <v>445</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12837,22 +12794,22 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>309</v>
+        <v>444</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12866,10 +12823,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12877,7 +12834,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>86</v>
@@ -12889,16 +12846,16 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12949,10 +12906,10 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>86</v>
@@ -12978,10 +12935,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12989,10 +12946,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -13001,16 +12958,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13061,13 +13018,13 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
@@ -13090,10 +13047,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13116,13 +13073,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>297</v>
+        <v>454</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13173,7 +13130,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13185,10 +13142,10 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13202,21 +13159,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13228,17 +13185,15 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13287,19 +13242,19 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>84</v>
@@ -13316,14 +13271,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13336,26 +13291,24 @@
         <v>77</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13403,7 +13356,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13418,7 +13371,7 @@
         <v>137</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13432,44 +13385,46 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13517,22 +13472,22 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>474</v>
+        <v>288</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13546,10 +13501,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13569,20 +13524,18 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13631,7 +13584,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13660,10 +13613,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13671,10 +13624,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
@@ -13683,20 +13636,18 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>467</v>
+        <v>271</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>478</v>
+        <v>349</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
@@ -13745,13 +13696,13 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
@@ -13774,10 +13725,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13788,7 +13739,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -13800,18 +13751,16 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>483</v>
+        <v>276</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>484</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13859,22 +13808,22 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>481</v>
+        <v>253</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -13888,21 +13837,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -13914,15 +13863,17 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13971,19 +13922,19 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>84</v>
@@ -14000,14 +13951,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14020,24 +13971,26 @@
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14085,7 +14038,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14100,7 +14053,7 @@
         <v>137</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14114,46 +14067,44 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
       </c>
@@ -14201,22 +14152,22 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>309</v>
+        <v>467</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14230,10 +14181,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14241,7 +14192,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>86</v>
@@ -14256,16 +14207,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>489</v>
+        <v>379</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14315,10 +14266,10 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>86</v>
@@ -14344,10 +14295,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14370,18 +14321,18 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>178</v>
+        <v>460</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>77</v>
       </c>
@@ -14429,7 +14380,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14458,10 +14409,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14484,19 +14435,17 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -14545,7 +14494,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14574,10 +14523,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14588,7 +14537,7 @@
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
@@ -14600,18 +14549,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>501</v>
+        <v>275</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>502</v>
+        <v>276</v>
       </c>
       <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>503</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -14659,22 +14606,22 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>500</v>
+        <v>253</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14688,14 +14635,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -14714,18 +14661,18 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>505</v>
+        <v>133</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>77</v>
       </c>
@@ -14773,7 +14720,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -14785,18 +14732,706 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AK115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>77</v>
       </c>
     </row>
